--- a/bots/crawl_ch/output/clothes_2022-08-09.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-09.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L - Online kein Bestand 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-09 07:04:16</t>
+          <t>2022-08-09 20:57:24</t>
         </is>
       </c>
     </row>
